--- a/data/trans_dic/P14_1-Urba-trans_dic.xlsx
+++ b/data/trans_dic/P14_1-Urba-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -497,7 +498,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -521,7 +522,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población con realización de prueba diagnóstica COVID-19 (muestra de la garganta o nariz)</t>
+          <t>Población con realización de prueba diagnóstica COVID-19 (muestra de la garganta o nariz) (tasa de respuesta: 99,97%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -601,32 +602,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>2,85%</t>
+          <t>2,89%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>18,77%</t>
+          <t>18,62%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>3,09%</t>
+          <t>3,2%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>21,56%</t>
+          <t>21,07%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>2,98%</t>
+          <t>3,05%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>20,24%</t>
+          <t>19,9%</t>
         </is>
       </c>
     </row>
@@ -639,32 +640,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1,74; 4,61</t>
+          <t>1,81; 4,53</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>15,66; 22,38</t>
+          <t>15,88; 22,22</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>2,01; 5,08</t>
+          <t>2,04; 4,75</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>18,39; 24,14</t>
+          <t>18,47; 23,96</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>2,18; 4,12</t>
+          <t>2,17; 4,18</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>18,17; 22,54</t>
+          <t>17,76; 21,98</t>
         </is>
       </c>
     </row>
@@ -681,32 +682,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>2,36%</t>
+          <t>2,39%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>20,05%</t>
+          <t>20,71%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>3,94%</t>
+          <t>4,18%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>23,5%</t>
+          <t>23,37%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>3,16%</t>
+          <t>3,29%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>21,77%</t>
+          <t>22,04%</t>
         </is>
       </c>
     </row>
@@ -719,32 +720,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,28; 4,06</t>
+          <t>1,29; 4,12</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>16,51; 23,91</t>
+          <t>17,16; 24,75</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>2,42; 6,71</t>
+          <t>2,52; 7,53</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>20,41; 27,14</t>
+          <t>20,32; 27,13</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>2,08; 4,71</t>
+          <t>2,28; 5,39</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>19,23; 24,2</t>
+          <t>19,58; 25,15</t>
         </is>
       </c>
     </row>
@@ -761,32 +762,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>2,16%</t>
+          <t>2,27%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>23,06%</t>
+          <t>23,78%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>5,08%</t>
+          <t>2,47%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>27,09%</t>
+          <t>26,89%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>3,6%</t>
+          <t>2,37%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>25,05%</t>
+          <t>25,31%</t>
         </is>
       </c>
     </row>
@@ -799,32 +800,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,58; 6,53</t>
+          <t>0,62; 7,28</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>16,52; 31,06</t>
+          <t>16,38; 32,34</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,31; 17,24</t>
+          <t>0,67; 6,45</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>20,99; 34,39</t>
+          <t>20,37; 34,05</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>1,34; 9,19</t>
+          <t>1,04; 4,76</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>20,28; 30,5</t>
+          <t>21,01; 30,79</t>
         </is>
       </c>
     </row>
@@ -841,32 +842,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>2,57%</t>
+          <t>2,62%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>19,81%</t>
+          <t>20,09%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>3,65%</t>
+          <t>3,49%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>22,93%</t>
+          <t>22,61%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>3,12%</t>
+          <t>3,07%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>21,4%</t>
+          <t>21,37%</t>
         </is>
       </c>
     </row>
@@ -879,32 +880,39 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,8; 3,73</t>
+          <t>1,77; 3,73</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>17,65; 22,21</t>
+          <t>18,06; 22,22</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>2,61; 5,14</t>
+          <t>2,59; 5,04</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>20,77; 24,98</t>
+          <t>20,63; 24,6</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>2,45; 3,95</t>
+          <t>2,43; 3,97</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>19,76; 22,95</t>
+          <t>19,98; 23,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
@@ -921,4 +929,595 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población con realización de prueba diagnóstica COVID-19 (muestra de la garganta o nariz) (tasa de respuesta: 99,97%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Urbano</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>132.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>179.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>311.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>47762</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>306742</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>57949</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>383809</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>105710</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>690551</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>29952; 74899</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>261632; 366025</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>36969; 86032</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>336543; 436476</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>74961; 144792</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>616076; 762625</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>110.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>154.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>264.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>32900</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>285601</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>58124</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>320467</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>91025</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>606069</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>17658; 56575</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>236716; 341348</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>35004; 104809</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>278668; 371951</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>62985; 148953</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>538556; 691713</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>45.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>79.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>9601</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>100563</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>10181</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>110153</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>19782</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>210717</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>2605; 30784</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>69259; 136746</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>2747; 26553</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>83432; 139449</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>8690; 39758</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>174899; 256330</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>276.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>45.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>378.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>77.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>654.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>90263</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>692907</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>126253</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>814430</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>216516</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>1507336</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>60925; 128819</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>623022; 766465</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>93702; 182092</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>743036; 886313</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>171379; 280409</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>1409020; 1621760</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>